--- a/src/test/resources/excel/AddCustomerDetails.xlsx
+++ b/src/test/resources/excel/AddCustomerDetails.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinot\eclipse-workspace\LiveProject_01\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810CED68-9315-409E-8C2F-FA5BB5D67DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0789BE97-C748-4EA2-8734-A730A2D73C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1466E943-CF70-41D7-A8FA-1B38814BE39A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1466E943-CF70-41D7-A8FA-1B38814BE39A}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Customer" sheetId="1" r:id="rId1"/>
     <sheet name="Open Account" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyCustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>FirstName</t>
   </si>
@@ -502,7 +503,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B93F7E-A594-475B-B980-4C74504E1759}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -718,4 +719,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF34925-273F-4C24-8DBD-1A2617720CEF}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>